--- a/data/league_data/england/21/england_std.xlsx
+++ b/data/league_data/england/21/england_std.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/england/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E03D0BD-4243-684E-8FC9-C3B3B172EB4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FAEDC0-F561-FD44-9183-7D40E4A26F20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2509,8 +2509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="AC294" sqref="AC294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
